--- a/utility/dir/food.xlsx
+++ b/utility/dir/food.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
   <si>
     <t>M1</t>
   </si>
@@ -138,6 +138,9 @@
   </si>
   <si>
     <t>ឆ្អឹងជំនីroty</t>
+  </si>
+  <si>
+    <t>ម្ជូរយួនឆ្អឹងជំនី</t>
   </si>
 </sst>
 </file>
@@ -502,7 +505,7 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -595,7 +598,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>14</v>
